--- a/all_roi_df.xlsx
+++ b/all_roi_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhessa/flybrain-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0422AB0-DBB4-E94F-BFFF-48498F8E55AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED6023C-D1EA-174E-A88C-64F0B54381E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
+    <workbookView xWindow="31400" yWindow="2860" windowWidth="12460" windowHeight="17320" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="236">
   <si>
     <t>Super</t>
   </si>
@@ -751,6 +751,9 @@
   </si>
   <si>
     <t>L4</t>
+  </si>
+  <si>
+    <t>NotPrimary</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DED42-EFA8-9A4A-A075-831208CC5CF7}">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2070,17 +2073,17 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
+      <c r="B183" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C184" t="s">
+      <c r="B184" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C185" t="s">
+      <c r="B185" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2090,32 +2093,32 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C187" t="s">
+      <c r="B187" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
+      <c r="B188" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C189" t="s">
+      <c r="B189" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C190" t="s">
+      <c r="B190" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C191" t="s">
+      <c r="B191" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C192" t="s">
+      <c r="B192" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2307,6 +2310,11 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/all_roi_df.xlsx
+++ b/all_roi_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhessa/flybrain-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED6023C-D1EA-174E-A88C-64F0B54381E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0902B285-63C5-7849-918D-CD7989E06A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31400" yWindow="2860" windowWidth="12460" windowHeight="17320" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
+    <workbookView xWindow="21280" yWindow="1920" windowWidth="22720" windowHeight="21360" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="244">
   <si>
     <t>Super</t>
   </si>
@@ -754,6 +754,30 @@
   </si>
   <si>
     <t>NotPrimary</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>VLNP</t>
+  </si>
+  <si>
+    <t>L1</t>
   </si>
 </sst>
 </file>
@@ -846,9 +870,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -886,7 +910,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -992,7 +1016,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1134,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1142,1178 +1166,1235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DED42-EFA8-9A4A-A075-831208CC5CF7}">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D107" t="s">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D108" t="s">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D110" t="s">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D112" t="s">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C114" t="s">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C118" t="s">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C120" t="s">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C122" t="s">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C123" t="s">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C124" t="s">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C125" t="s">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C126" t="s">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C127" t="s">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C128" t="s">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C142" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="1" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>238</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>239</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C158" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>240</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D164" t="s">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E164" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E165" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D166" t="s">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E166" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D168" t="s">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E168" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D170" t="s">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E170" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D172" t="s">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E172" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D173" t="s">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E173" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C174" t="s">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D175" t="s">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E175" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E176" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C177" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D178" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E178" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D179" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E179" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D180" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E180" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D181" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E181" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D182" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E182" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>240</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
+      <c r="B198" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C203" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C204" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
+      <c r="B205" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>241</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>241</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B212" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>242</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
+      <c r="B219" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C221" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
         <v>235</v>
       </c>
     </row>

--- a/all_roi_df.xlsx
+++ b/all_roi_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhessa/flybrain-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0902B285-63C5-7849-918D-CD7989E06A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A2CA3-C660-0E45-B1F6-3367190EB05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21280" yWindow="1920" windowWidth="22720" windowHeight="21360" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
+    <workbookView xWindow="15620" yWindow="2080" windowWidth="22500" windowHeight="22020" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="262">
   <si>
     <t>Super</t>
   </si>
@@ -778,6 +778,60 @@
   </si>
   <si>
     <t>L1</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>teal</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>orchid</t>
+  </si>
+  <si>
+    <t>seagreen</t>
+  </si>
+  <si>
+    <t>cadetblue</t>
+  </si>
+  <si>
+    <t>navy</t>
+  </si>
+  <si>
+    <t>blueviolet</t>
+  </si>
+  <si>
+    <t>firebrick</t>
+  </si>
+  <si>
+    <t>royalblue</t>
+  </si>
+  <si>
+    <t>rosybrown</t>
+  </si>
+  <si>
+    <t>lightcoral</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DED42-EFA8-9A4A-A075-831208CC5CF7}">
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1231,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,164 +1247,173 @@
       <c r="E1" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>236</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>45</v>
       </c>
@@ -1595,88 +1658,94 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>237</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>134</v>
       </c>
@@ -1841,174 +1910,210 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F132" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
       <c r="B133" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F133" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F134" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F135" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D144" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>238</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F150" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>239</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F151" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>239</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F154" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>240</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F159" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>155</v>
       </c>
@@ -2093,309 +2198,345 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E178" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E179" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E180" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E181" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E182" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>240</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>237</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F193" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>18</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F198" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>19</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F205" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>241</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F206" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>241</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F209" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>242</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F213" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>23</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F219" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>236</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F229" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>236</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F230" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="B231" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/all_roi_df.xlsx
+++ b/all_roi_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhessa/flybrain-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A2CA3-C660-0E45-B1F6-3367190EB05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814013E-7E47-3341-98E0-0803A42B01F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="2080" windowWidth="22500" windowHeight="22020" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="264">
   <si>
     <t>Super</t>
   </si>
@@ -832,13 +832,19 @@
   </si>
   <si>
     <t>lightcoral</t>
+  </si>
+  <si>
+    <t>Super_split</t>
+  </si>
+  <si>
+    <t>Color2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -849,6 +855,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -875,9 +888,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,1322 +1234,2048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DED42-EFA8-9A4A-A075-831208CC5CF7}">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="H5" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="H6" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="H7" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="H8" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="H9" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="H10" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="H11" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="H12" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="H13" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="H14" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="H15" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="H16" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="H17" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="H18" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="D19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="H19" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="D20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="H20" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="D21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>236</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="H23" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="H24" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="H25" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="D26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="H26" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="D27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="H27" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="H28" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+      <c r="H29" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+      <c r="H30" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="D31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="H31" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="D32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+      <c r="H32" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="H33" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="D34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="H34" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="D35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="H35" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+      <c r="H36" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="D37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+      <c r="H37" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="D38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+      <c r="H38" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="D39" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+      <c r="H39" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="D40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+      <c r="H40" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="D41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
+      <c r="H41" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="D42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+      <c r="H42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="D43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+      <c r="H43" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="D44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+      <c r="H44" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="D45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+      <c r="H45" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="D46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+      <c r="H46" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="D47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+      <c r="H47" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="D48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+      <c r="H48" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="D49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+      <c r="H49" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="D50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+      <c r="H50" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="D51" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+      <c r="H51" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="D52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+      <c r="H52" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="D53" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+      <c r="H53" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+      <c r="D54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+      <c r="H54" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="D55" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+      <c r="H55" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="D56" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+      <c r="H56" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="D57" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
+      <c r="H57" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="D58" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
+      <c r="H58" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="D59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
+      <c r="H59" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="D60" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
+      <c r="H60" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="D61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
+      <c r="H61" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="D62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
+      <c r="H62" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="D63" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
+      <c r="H63" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="D64" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
+      <c r="H64" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="D65" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
+      <c r="H65" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="D66" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
+      <c r="H66" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+      <c r="D67" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
+      <c r="H67" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="D68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
+      <c r="H68" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="D69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
+      <c r="H69" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="D70" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
+      <c r="H70" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="D71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
+      <c r="H71" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="D72" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
+      <c r="H72" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="D73" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
+      <c r="H73" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="D74" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
+      <c r="H74" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="D75" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
+      <c r="H75" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="D76" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
+      <c r="H76" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="D77" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
+      <c r="H77" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="D78" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
+      <c r="H78" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+      <c r="D79" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
+      <c r="H79" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+      <c r="D80" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>237</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="D83" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
+      <c r="H83" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="D84" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
+      <c r="H84" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="D85" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+      <c r="H85" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+      <c r="E86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+      <c r="E87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D88" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+      <c r="E88" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D89" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+      <c r="E89" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D90" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+      <c r="E90" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D91" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="E91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D92" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="E92" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="D93" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D94" t="s">
+      <c r="H93" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+      <c r="E94" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D95" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+      <c r="E95" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D96" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+      <c r="E96" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D97" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+      <c r="E97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D98" t="s">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+      <c r="E98" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D99" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+      <c r="E99" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D100" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+      <c r="E100" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D101" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+      <c r="E101" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D102" t="s">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+      <c r="E102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D103" t="s">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="1"/>
+      <c r="E103" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+      <c r="D104" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D105" t="s">
+      <c r="H104" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="1"/>
+      <c r="E105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E106" t="s">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+      <c r="F106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E107" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+      <c r="F107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+      <c r="F108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D109" t="s">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+      <c r="E109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E110" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+      <c r="F110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E111" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+      <c r="F111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E112" t="s">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+      <c r="F112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="1"/>
+      <c r="D113" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D114" t="s">
+      <c r="H113" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="1"/>
+      <c r="E114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D115" t="s">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+      <c r="E115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D116" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+      <c r="E116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D117" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+      <c r="E117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D118" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+      <c r="E118" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D119" t="s">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+      <c r="E119" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D120" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+      <c r="E120" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D121" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+      <c r="E121" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D122" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+      <c r="E122" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D123" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+      <c r="E123" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D124" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+      <c r="E124" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D125" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="1"/>
+      <c r="E125" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D126" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="1"/>
+      <c r="E126" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D127" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+      <c r="E127" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D128" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+      <c r="E128" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D129" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+      <c r="E129" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="1"/>
+      <c r="E130" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
+      <c r="E131" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H132" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H133" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>9</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H134" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>10</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="1"/>
+      <c r="D136" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
+      <c r="H136" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="1"/>
+      <c r="D137" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
+      <c r="H137" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="1"/>
+      <c r="D138" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D139" t="s">
+      <c r="H138" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="1"/>
+      <c r="E139" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D140" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="1"/>
+      <c r="E140" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="1"/>
+      <c r="D141" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D142" t="s">
+      <c r="H141" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="1"/>
+      <c r="E142" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D143" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B143" s="1"/>
+      <c r="E143" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D144" s="1" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B144" s="1"/>
+      <c r="E144" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B145" s="1"/>
+      <c r="D145" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
+      <c r="H145" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+      <c r="D146" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
+      <c r="H146" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+      <c r="D147" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C148" t="s">
+      <c r="H147" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="1"/>
+      <c r="D148" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
+      <c r="H148" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+      <c r="D149" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H149" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>238</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="C150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H150" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>239</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="1"/>
+      <c r="D152" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
+      <c r="H152" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="1"/>
+      <c r="D153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H153" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>239</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="1"/>
+      <c r="D155" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
+      <c r="H155" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="1"/>
+      <c r="D156" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D157" t="s">
+      <c r="H156" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B157" s="1"/>
+      <c r="E157" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D158" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="1"/>
+      <c r="E158" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>240</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B160" s="1"/>
+      <c r="D160" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D161" t="s">
+      <c r="H160" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" s="1"/>
+      <c r="E161" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D162" t="s">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
+      <c r="E162" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D163" t="s">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="1"/>
+      <c r="E163" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E164" t="s">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="1"/>
+      <c r="F164" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E165" t="s">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" s="1"/>
+      <c r="F165" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E166" t="s">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="1"/>
+      <c r="F166" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D167" t="s">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="1"/>
+      <c r="E167" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E168" t="s">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="1"/>
+      <c r="F168" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E169" t="s">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="1"/>
+      <c r="F169" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E170" t="s">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="1"/>
+      <c r="F170" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D171" t="s">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="1"/>
+      <c r="E171" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E172" t="s">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="1"/>
+      <c r="F172" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E173" t="s">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="1"/>
+      <c r="F173" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D174" t="s">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="1"/>
+      <c r="E174" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E175" t="s">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="1"/>
+      <c r="F175" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E176" t="s">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="1"/>
+      <c r="F176" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D177" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B177" s="1"/>
+      <c r="E177" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E178" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="1"/>
+      <c r="F178" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E179" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B179" s="1"/>
+      <c r="F179" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E180" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B180" s="1"/>
+      <c r="F180" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E181" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B181" s="1"/>
+      <c r="F181" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E182" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B182" s="1"/>
+      <c r="F182" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B183" s="1"/>
+      <c r="D183" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C184" t="s">
+      <c r="H183" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B184" s="1"/>
+      <c r="D184" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C185" t="s">
+      <c r="H184" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+      <c r="D185" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H185" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>240</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C187" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B187" s="1"/>
+      <c r="D187" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
+      <c r="H187" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="1"/>
+      <c r="D188" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C189" t="s">
+      <c r="H188" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B189" s="1"/>
+      <c r="D189" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C190" t="s">
+      <c r="H189" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="1"/>
+      <c r="D190" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C191" t="s">
+      <c r="H190" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="1"/>
+      <c r="D191" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C192" t="s">
+      <c r="H191" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="1"/>
+      <c r="D192" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H192" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>237</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="C193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C194" t="s">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="1"/>
+      <c r="D194" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C195" t="s">
+      <c r="H194" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="1"/>
+      <c r="D195" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C196" t="s">
+      <c r="H195" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="1"/>
+      <c r="D196" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C197" t="s">
+      <c r="H196" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="1"/>
+      <c r="D197" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H197" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>18</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="C198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C199" t="s">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="1"/>
+      <c r="D199" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C200" t="s">
+      <c r="H199" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="1"/>
+      <c r="D200" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C201" t="s">
+      <c r="H200" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="1"/>
+      <c r="D201" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C202" t="s">
+      <c r="H201" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+      <c r="D202" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D203" t="s">
+      <c r="H202" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B203" s="1"/>
+      <c r="E203" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D204" t="s">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B204" s="1"/>
+      <c r="E204" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>19</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="C205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H205" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>241</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="C206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G206" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C207" t="s">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B207" s="1"/>
+      <c r="D207" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C208" t="s">
+      <c r="H207" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B208" s="1"/>
+      <c r="D208" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H208" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>241</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="C209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C210" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B210" s="1"/>
+      <c r="D210" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C211" t="s">
+      <c r="H210" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+      <c r="D211" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C212" t="s">
+      <c r="H211" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B212" s="1"/>
+      <c r="D212" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H212" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>242</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="C213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C214" t="s">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B214" s="1"/>
+      <c r="D214" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C215" t="s">
+      <c r="H214" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B215" s="1"/>
+      <c r="D215" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C216" t="s">
+      <c r="H215" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B216" s="1"/>
+      <c r="D216" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C217" t="s">
+      <c r="H216" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B217" s="1"/>
+      <c r="D217" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C218" t="s">
+      <c r="H217" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B218" s="1"/>
+      <c r="D218" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H218" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>23</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="C219" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C220" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B220" s="1"/>
+      <c r="D220" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C221" t="s">
+      <c r="H220" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B221" s="1"/>
+      <c r="D221" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C222" t="s">
+      <c r="H221" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B222" s="1"/>
+      <c r="D222" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C223" t="s">
+      <c r="H222" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B223" s="1"/>
+      <c r="D223" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C224" t="s">
+      <c r="H223" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B224" s="1"/>
+      <c r="D224" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C225" t="s">
+      <c r="H224" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B225" s="1"/>
+      <c r="D225" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C226" t="s">
+      <c r="H225" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B226" s="1"/>
+      <c r="D226" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C227" t="s">
+      <c r="H226" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B227" s="1"/>
+      <c r="D227" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C228" t="s">
+      <c r="H227" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B228" s="1"/>
+      <c r="D228" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H228" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>236</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D229" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>236</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>256</v>
       </c>
     </row>

--- a/all_roi_df.xlsx
+++ b/all_roi_df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhessa/flybrain-clustering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rw2822/Documents/GitHub/flybrain-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814013E-7E47-3341-98E0-0803A42B01F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4E0FA-252F-4B40-B3DF-59341089FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="2080" windowWidth="22500" windowHeight="22020" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
   </bookViews>
@@ -37,7 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -786,9 +785,6 @@
     <t>brown</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>orange</t>
   </si>
   <si>
@@ -825,9 +821,6 @@
     <t>firebrick</t>
   </si>
   <si>
-    <t>royalblue</t>
-  </si>
-  <si>
     <t>rosybrown</t>
   </si>
   <si>
@@ -838,6 +831,12 @@
   </si>
   <si>
     <t>Color2</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>cornflowerblue</t>
   </si>
 </sst>
 </file>
@@ -938,9 +937,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -978,7 +977,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1084,7 +1083,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1226,7 +1225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1236,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DED42-EFA8-9A4A-A075-831208CC5CF7}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>243</v>
@@ -1268,7 +1267,7 @@
         <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1282,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1291,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1300,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1309,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,7 +1317,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1327,7 +1326,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1336,7 +1335,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1345,7 +1344,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1354,7 +1353,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1363,7 +1362,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1372,7 +1371,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1381,7 +1380,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1390,7 +1389,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1399,7 +1398,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1408,7 +1407,7 @@
         <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1417,7 +1416,7 @@
         <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,7 +1425,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1435,7 +1434,7 @@
         <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1444,7 +1443,7 @@
         <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1453,7 +1452,7 @@
         <v>97</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1467,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1476,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1485,7 +1484,7 @@
         <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,7 +1493,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1503,7 +1502,7 @@
         <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1512,7 +1511,7 @@
         <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1521,7 +1520,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1530,7 +1529,7 @@
         <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1539,7 +1538,7 @@
         <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1548,7 +1547,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1557,7 +1556,7 @@
         <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -1566,7 +1565,7 @@
         <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -1575,7 +1574,7 @@
         <v>47</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -1584,7 +1583,7 @@
         <v>48</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -1593,7 +1592,7 @@
         <v>49</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -1602,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -1611,7 +1610,7 @@
         <v>53</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -1620,7 +1619,7 @@
         <v>55</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -1629,7 +1628,7 @@
         <v>57</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -1638,7 +1637,7 @@
         <v>59</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -1647,7 +1646,7 @@
         <v>61</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -1656,7 +1655,7 @@
         <v>63</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -1665,7 +1664,7 @@
         <v>65</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -1674,7 +1673,7 @@
         <v>66</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -1683,7 +1682,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -1692,7 +1691,7 @@
         <v>69</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -1701,7 +1700,7 @@
         <v>70</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -1710,7 +1709,7 @@
         <v>71</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -1719,7 +1718,7 @@
         <v>72</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -1728,7 +1727,7 @@
         <v>73</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -1737,7 +1736,7 @@
         <v>74</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -1746,7 +1745,7 @@
         <v>75</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -1755,7 +1754,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -1764,7 +1763,7 @@
         <v>78</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -1773,7 +1772,7 @@
         <v>79</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
@@ -1782,7 +1781,7 @@
         <v>80</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
@@ -1791,7 +1790,7 @@
         <v>81</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -1800,7 +1799,7 @@
         <v>82</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -1809,7 +1808,7 @@
         <v>83</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -1818,7 +1817,7 @@
         <v>84</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -1827,7 +1826,7 @@
         <v>85</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
@@ -1836,7 +1835,7 @@
         <v>86</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -1845,7 +1844,7 @@
         <v>87</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -1854,7 +1853,7 @@
         <v>88</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -1863,7 +1862,7 @@
         <v>89</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -1872,7 +1871,7 @@
         <v>90</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -1881,7 +1880,7 @@
         <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
@@ -1890,7 +1889,7 @@
         <v>92</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
@@ -1899,7 +1898,7 @@
         <v>93</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -1908,7 +1907,7 @@
         <v>94</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
@@ -1917,7 +1916,7 @@
         <v>96</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
@@ -1926,7 +1925,7 @@
         <v>98</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
@@ -1935,7 +1934,7 @@
         <v>99</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -1944,7 +1943,7 @@
         <v>100</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
@@ -1953,7 +1952,7 @@
         <v>101</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
@@ -1962,7 +1961,7 @@
         <v>102</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
@@ -1971,7 +1970,7 @@
         <v>103</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
@@ -1980,7 +1979,7 @@
         <v>104</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
@@ -1989,7 +1988,7 @@
         <v>105</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2023,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2032,7 +2031,7 @@
         <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -2041,7 +2040,7 @@
         <v>34</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2050,7 +2049,7 @@
         <v>121</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2101,7 +2100,7 @@
         <v>131</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2170,7 +2169,7 @@
         <v>157</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
@@ -2227,7 +2226,7 @@
         <v>166</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
@@ -2352,10 +2351,10 @@
         <v>7</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -2372,10 +2371,10 @@
         <v>8</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -2392,10 +2391,10 @@
         <v>9</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -2409,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -2418,7 +2417,7 @@
         <v>109</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -2427,7 +2426,7 @@
         <v>110</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -2436,7 +2435,7 @@
         <v>119</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -2457,7 +2456,7 @@
         <v>120</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -2484,7 +2483,7 @@
         <v>146</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -2493,7 +2492,7 @@
         <v>147</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -2502,7 +2501,7 @@
         <v>148</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -2511,7 +2510,7 @@
         <v>193</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -2520,7 +2519,7 @@
         <v>194</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -2537,10 +2536,10 @@
         <v>11</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -2554,7 +2553,7 @@
         <v>12</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -2563,7 +2562,7 @@
         <v>112</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -2572,7 +2571,7 @@
         <v>151</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -2586,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -2595,7 +2594,7 @@
         <v>113</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -2604,7 +2603,7 @@
         <v>152</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -2639,7 +2638,7 @@
         <v>155</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
@@ -2780,7 +2779,7 @@
         <v>223</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -2789,7 +2788,7 @@
         <v>232</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -2798,7 +2797,7 @@
         <v>233</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -2812,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -2821,7 +2820,7 @@
         <v>114</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -2830,7 +2829,7 @@
         <v>208</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -2839,7 +2838,7 @@
         <v>213</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -2848,7 +2847,7 @@
         <v>217</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -2857,7 +2856,7 @@
         <v>221</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -2866,7 +2865,7 @@
         <v>229</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -2880,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -2889,7 +2888,7 @@
         <v>106</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -2898,7 +2897,7 @@
         <v>153</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -2907,7 +2906,7 @@
         <v>154</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -2916,7 +2915,7 @@
         <v>156</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -2930,7 +2929,7 @@
         <v>18</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -2939,7 +2938,7 @@
         <v>116</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -2948,7 +2947,7 @@
         <v>142</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -2957,7 +2956,7 @@
         <v>186</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -2966,7 +2965,7 @@
         <v>191</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -2995,10 +2994,10 @@
         <v>19</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -3012,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -3021,7 +3020,7 @@
         <v>195</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -3030,7 +3029,7 @@
         <v>198</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -3044,7 +3043,7 @@
         <v>21</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -3053,7 +3052,7 @@
         <v>196</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -3062,7 +3061,7 @@
         <v>197</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -3071,7 +3070,7 @@
         <v>199</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -3085,7 +3084,7 @@
         <v>22</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,7 +3093,7 @@
         <v>108</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -3103,7 +3102,7 @@
         <v>111</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -3112,7 +3111,7 @@
         <v>185</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -3121,7 +3120,7 @@
         <v>187</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -3130,7 +3129,7 @@
         <v>204</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -3144,7 +3143,7 @@
         <v>23</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -3153,7 +3152,7 @@
         <v>129</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -3162,7 +3161,7 @@
         <v>130</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -3171,7 +3170,7 @@
         <v>144</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -3180,7 +3179,7 @@
         <v>145</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -3189,7 +3188,7 @@
         <v>149</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -3198,7 +3197,7 @@
         <v>200</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -3207,7 +3206,7 @@
         <v>201</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -3216,7 +3215,7 @@
         <v>202</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -3225,7 +3224,7 @@
         <v>203</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -3242,7 +3241,7 @@
         <v>24</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -3259,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -3276,7 +3275,7 @@
         <v>235</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/all_roi_df.xlsx
+++ b/all_roi_df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rw2822/Documents/GitHub/flybrain-clustering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhessa/flybrain-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4E0FA-252F-4B40-B3DF-59341089FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814013E-7E47-3341-98E0-0803A42B01F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="2080" windowWidth="22500" windowHeight="22020" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
   </bookViews>
@@ -37,6 +37,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -785,6 +786,9 @@
     <t>brown</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
@@ -821,6 +825,9 @@
     <t>firebrick</t>
   </si>
   <si>
+    <t>royalblue</t>
+  </si>
+  <si>
     <t>rosybrown</t>
   </si>
   <si>
@@ -831,12 +838,6 @@
   </si>
   <si>
     <t>Color2</t>
-  </si>
-  <si>
-    <t>salmon</t>
-  </si>
-  <si>
-    <t>cornflowerblue</t>
   </si>
 </sst>
 </file>
@@ -937,9 +938,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -977,7 +978,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1083,7 +1084,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1225,7 +1226,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DED42-EFA8-9A4A-A075-831208CC5CF7}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="K211" sqref="K211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>243</v>
@@ -1267,7 +1268,7 @@
         <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1281,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1290,7 +1291,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,7 +1300,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1308,7 +1309,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1317,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,7 +1327,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1335,7 +1336,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,7 +1345,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,7 +1354,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1362,7 +1363,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1371,7 +1372,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1380,7 +1381,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1389,7 +1390,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1398,7 +1399,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1407,7 +1408,7 @@
         <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1416,7 +1417,7 @@
         <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1425,7 +1426,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1434,7 +1435,7 @@
         <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1443,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1452,7 +1453,7 @@
         <v>97</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1466,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1475,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1484,7 +1485,7 @@
         <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1493,7 +1494,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1502,7 +1503,7 @@
         <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1511,7 +1512,7 @@
         <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1520,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1529,7 +1530,7 @@
         <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1538,7 +1539,7 @@
         <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1547,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1556,7 +1557,7 @@
         <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -1565,7 +1566,7 @@
         <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -1574,7 +1575,7 @@
         <v>47</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -1583,7 +1584,7 @@
         <v>48</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -1592,7 +1593,7 @@
         <v>49</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -1601,7 +1602,7 @@
         <v>51</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -1610,7 +1611,7 @@
         <v>53</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -1619,7 +1620,7 @@
         <v>55</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -1628,7 +1629,7 @@
         <v>57</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -1637,7 +1638,7 @@
         <v>59</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -1646,7 +1647,7 @@
         <v>61</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -1655,7 +1656,7 @@
         <v>63</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -1664,7 +1665,7 @@
         <v>65</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -1673,7 +1674,7 @@
         <v>66</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -1682,7 +1683,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -1691,7 +1692,7 @@
         <v>69</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -1700,7 +1701,7 @@
         <v>70</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -1709,7 +1710,7 @@
         <v>71</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -1718,7 +1719,7 @@
         <v>72</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -1727,7 +1728,7 @@
         <v>73</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -1736,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -1745,7 +1746,7 @@
         <v>75</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -1754,7 +1755,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -1763,7 +1764,7 @@
         <v>78</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -1772,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
@@ -1781,7 +1782,7 @@
         <v>80</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
@@ -1790,7 +1791,7 @@
         <v>81</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -1799,7 +1800,7 @@
         <v>82</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -1808,7 +1809,7 @@
         <v>83</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -1817,7 +1818,7 @@
         <v>84</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -1826,7 +1827,7 @@
         <v>85</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
@@ -1835,7 +1836,7 @@
         <v>86</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -1844,7 +1845,7 @@
         <v>87</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -1853,7 +1854,7 @@
         <v>88</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -1862,7 +1863,7 @@
         <v>89</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -1871,7 +1872,7 @@
         <v>90</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -1880,7 +1881,7 @@
         <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
@@ -1889,7 +1890,7 @@
         <v>92</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
@@ -1898,7 +1899,7 @@
         <v>93</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -1907,7 +1908,7 @@
         <v>94</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
@@ -1916,7 +1917,7 @@
         <v>96</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
@@ -1925,7 +1926,7 @@
         <v>98</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
@@ -1934,7 +1935,7 @@
         <v>99</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -1943,7 +1944,7 @@
         <v>100</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
@@ -1952,7 +1953,7 @@
         <v>101</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
@@ -1961,7 +1962,7 @@
         <v>102</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
@@ -1970,7 +1971,7 @@
         <v>103</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
@@ -1979,7 +1980,7 @@
         <v>104</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
@@ -1988,7 +1989,7 @@
         <v>105</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2022,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2031,7 +2032,7 @@
         <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -2040,7 +2041,7 @@
         <v>34</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2049,7 +2050,7 @@
         <v>121</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2100,7 +2101,7 @@
         <v>131</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2169,7 +2170,7 @@
         <v>157</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
@@ -2226,7 +2227,7 @@
         <v>166</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
@@ -2351,10 +2352,10 @@
         <v>7</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -2371,10 +2372,10 @@
         <v>8</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -2391,10 +2392,10 @@
         <v>9</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -2408,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -2417,7 +2418,7 @@
         <v>109</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -2426,7 +2427,7 @@
         <v>110</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -2435,7 +2436,7 @@
         <v>119</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -2456,7 +2457,7 @@
         <v>120</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -2483,7 +2484,7 @@
         <v>146</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -2492,7 +2493,7 @@
         <v>147</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -2501,7 +2502,7 @@
         <v>148</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -2510,7 +2511,7 @@
         <v>193</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -2519,7 +2520,7 @@
         <v>194</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -2536,10 +2537,10 @@
         <v>11</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -2553,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -2562,7 +2563,7 @@
         <v>112</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -2571,7 +2572,7 @@
         <v>151</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -2585,7 +2586,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -2594,7 +2595,7 @@
         <v>113</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,7 +2604,7 @@
         <v>152</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -2629,7 +2630,7 @@
         <v>14</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -2638,7 +2639,7 @@
         <v>155</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
@@ -2779,7 +2780,7 @@
         <v>223</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -2788,7 +2789,7 @@
         <v>232</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -2797,7 +2798,7 @@
         <v>233</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -2811,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -2820,7 +2821,7 @@
         <v>114</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -2829,7 +2830,7 @@
         <v>208</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -2838,7 +2839,7 @@
         <v>213</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -2847,7 +2848,7 @@
         <v>217</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -2856,7 +2857,7 @@
         <v>221</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -2865,7 +2866,7 @@
         <v>229</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -2879,7 +2880,7 @@
         <v>16</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -2888,7 +2889,7 @@
         <v>106</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -2897,7 +2898,7 @@
         <v>153</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -2906,7 +2907,7 @@
         <v>154</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -2915,7 +2916,7 @@
         <v>156</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -2929,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -2938,7 +2939,7 @@
         <v>116</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -2947,7 +2948,7 @@
         <v>142</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -2956,7 +2957,7 @@
         <v>186</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -2965,7 +2966,7 @@
         <v>191</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -2994,10 +2995,10 @@
         <v>19</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -3011,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -3020,7 +3021,7 @@
         <v>195</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -3029,7 +3030,7 @@
         <v>198</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -3043,7 +3044,7 @@
         <v>21</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -3052,7 +3053,7 @@
         <v>196</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -3061,7 +3062,7 @@
         <v>197</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -3070,7 +3071,7 @@
         <v>199</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -3084,7 +3085,7 @@
         <v>22</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -3093,7 +3094,7 @@
         <v>108</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -3102,7 +3103,7 @@
         <v>111</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -3111,7 +3112,7 @@
         <v>185</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -3120,7 +3121,7 @@
         <v>187</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -3129,7 +3130,7 @@
         <v>204</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -3143,7 +3144,7 @@
         <v>23</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -3152,7 +3153,7 @@
         <v>129</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -3161,7 +3162,7 @@
         <v>130</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -3170,7 +3171,7 @@
         <v>144</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -3179,7 +3180,7 @@
         <v>145</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -3188,7 +3189,7 @@
         <v>149</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -3197,7 +3198,7 @@
         <v>200</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -3206,7 +3207,7 @@
         <v>201</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -3215,7 +3216,7 @@
         <v>202</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -3224,7 +3225,7 @@
         <v>203</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -3241,7 +3242,7 @@
         <v>24</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -3258,7 +3259,7 @@
         <v>25</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -3275,7 +3276,7 @@
         <v>235</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/all_roi_df.xlsx
+++ b/all_roi_df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rw2822/Documents/GitHub/flybrain-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4E0FA-252F-4B40-B3DF-59341089FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA49309B-22D1-BE45-A8D2-C5E4CCE8A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="2080" windowWidth="22500" windowHeight="22020" xr2:uid="{218BD2C8-C60C-A140-AB23-F2F96D445C8B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="264">
   <si>
     <t>Super</t>
   </si>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3DED42-EFA8-9A4A-A075-831208CC5CF7}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="K211" sqref="K211"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,6 +1285,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
         <v>26</v>
@@ -1294,6 +1297,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="D4" t="s">
         <v>27</v>
@@ -1303,6 +1309,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="D5" t="s">
         <v>28</v>
@@ -1312,6 +1321,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="D6" t="s">
         <v>29</v>
@@ -1321,6 +1333,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>30</v>
@@ -1330,6 +1345,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>236</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>31</v>
@@ -1339,6 +1357,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>32</v>
@@ -1348,6 +1369,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="D10" t="s">
         <v>50</v>
@@ -1357,6 +1381,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>52</v>
@@ -1366,6 +1393,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>54</v>
@@ -1375,6 +1405,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="D13" t="s">
         <v>56</v>
@@ -1384,6 +1417,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>58</v>
@@ -1393,6 +1429,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>60</v>
@@ -1402,6 +1441,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>62</v>
@@ -1411,6 +1453,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="D17" t="s">
         <v>64</v>
@@ -1420,6 +1465,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="D18" t="s">
         <v>67</v>
@@ -1429,6 +1477,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="D19" t="s">
         <v>76</v>
@@ -1438,6 +1489,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="D20" t="s">
         <v>95</v>
@@ -1447,6 +1501,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>236</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="D21" t="s">
         <v>97</v>
@@ -1470,6 +1527,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="D23" t="s">
         <v>35</v>
@@ -1479,6 +1539,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="D24" t="s">
         <v>36</v>
@@ -1488,6 +1551,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>236</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="D25" t="s">
         <v>37</v>
@@ -1497,6 +1563,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>236</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="D26" t="s">
         <v>38</v>
@@ -1506,6 +1575,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="D27" t="s">
         <v>39</v>
@@ -1515,6 +1587,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>236</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="D28" t="s">
         <v>40</v>
@@ -1524,6 +1599,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="D29" t="s">
         <v>41</v>
@@ -1533,6 +1611,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="D30" t="s">
         <v>42</v>
@@ -1542,6 +1623,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="D31" t="s">
         <v>44</v>
@@ -1551,6 +1635,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="D32" t="s">
         <v>45</v>
@@ -1559,7 +1646,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>236</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="D33" t="s">
         <v>46</v>
@@ -1568,7 +1658,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>236</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="D34" t="s">
         <v>47</v>
@@ -1577,7 +1670,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="D35" t="s">
         <v>48</v>
@@ -1586,7 +1682,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>236</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="D36" t="s">
         <v>49</v>
@@ -1595,7 +1694,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="D37" t="s">
         <v>51</v>
@@ -1604,7 +1706,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="D38" t="s">
         <v>53</v>
@@ -1613,7 +1718,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="D39" t="s">
         <v>55</v>
@@ -1622,7 +1730,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="D40" t="s">
         <v>57</v>
@@ -1631,7 +1742,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>236</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="D41" t="s">
         <v>59</v>
@@ -1640,7 +1754,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>236</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="D42" t="s">
         <v>61</v>
@@ -1649,7 +1766,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="D43" t="s">
         <v>63</v>
@@ -1658,7 +1778,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>236</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="D44" t="s">
         <v>65</v>
@@ -1667,7 +1790,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>236</v>
+      </c>
       <c r="B45" s="1"/>
       <c r="D45" t="s">
         <v>66</v>
@@ -1676,7 +1802,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>236</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="D46" t="s">
         <v>68</v>
@@ -1685,7 +1814,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>236</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="D47" t="s">
         <v>69</v>
@@ -1694,7 +1826,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>236</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="D48" t="s">
         <v>70</v>
@@ -1703,7 +1838,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="D49" t="s">
         <v>71</v>
@@ -1712,7 +1850,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>236</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="D50" t="s">
         <v>72</v>
@@ -1721,7 +1862,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>236</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="D51" t="s">
         <v>73</v>
@@ -1730,7 +1874,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="D52" t="s">
         <v>74</v>
@@ -1739,7 +1886,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>236</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="D53" t="s">
         <v>75</v>
@@ -1748,7 +1898,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>236</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="D54" t="s">
         <v>77</v>
@@ -1757,7 +1910,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>236</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="D55" t="s">
         <v>78</v>
@@ -1766,7 +1922,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="D56" t="s">
         <v>79</v>
@@ -1775,7 +1934,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>236</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="D57" t="s">
         <v>80</v>
@@ -1784,7 +1946,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>236</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="D58" t="s">
         <v>81</v>
@@ -1793,7 +1958,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>236</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="D59" t="s">
         <v>82</v>
@@ -1802,7 +1970,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>236</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="D60" t="s">
         <v>83</v>
@@ -1811,7 +1982,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="D61" t="s">
         <v>84</v>
@@ -1820,7 +1994,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>236</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="D62" t="s">
         <v>85</v>
@@ -1829,7 +2006,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>236</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="D63" t="s">
         <v>86</v>
@@ -1838,7 +2018,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="D64" t="s">
         <v>87</v>
@@ -1847,7 +2030,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>236</v>
+      </c>
       <c r="B65" s="1"/>
       <c r="D65" t="s">
         <v>88</v>
@@ -1856,7 +2042,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="D66" t="s">
         <v>89</v>
@@ -1865,7 +2054,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>236</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="D67" t="s">
         <v>90</v>
@@ -1874,7 +2066,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>236</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="D68" t="s">
         <v>91</v>
@@ -1883,7 +2078,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>236</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="D69" t="s">
         <v>92</v>
@@ -1892,7 +2090,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>236</v>
+      </c>
       <c r="B70" s="1"/>
       <c r="D70" t="s">
         <v>93</v>
@@ -1901,7 +2102,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>236</v>
+      </c>
       <c r="B71" s="1"/>
       <c r="D71" t="s">
         <v>94</v>
@@ -1910,7 +2114,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>236</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="D72" t="s">
         <v>96</v>
@@ -1919,7 +2126,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>236</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="D73" t="s">
         <v>98</v>
@@ -1928,7 +2138,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="D74" t="s">
         <v>99</v>
@@ -1937,7 +2150,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>236</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="D75" t="s">
         <v>100</v>
@@ -1946,7 +2162,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="D76" t="s">
         <v>101</v>
@@ -1955,7 +2174,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="D77" t="s">
         <v>102</v>
@@ -1964,7 +2186,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>236</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="D78" t="s">
         <v>103</v>
@@ -1973,7 +2198,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="D79" t="s">
         <v>104</v>
@@ -1982,7 +2210,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>236</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="D80" t="s">
         <v>105</v>
@@ -2026,6 +2257,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="D83" t="s">
         <v>33</v>
@@ -2035,6 +2269,9 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
       <c r="B84" s="1"/>
       <c r="D84" t="s">
         <v>34</v>
@@ -2044,6 +2281,9 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="D85" t="s">
         <v>121</v>
@@ -2053,48 +2293,72 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
       <c r="B86" s="1"/>
       <c r="E86" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="E87" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="E88" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="E89" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
       <c r="B90" s="1"/>
       <c r="E90" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
       <c r="B91" s="1"/>
       <c r="E91" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
       <c r="B92" s="1"/>
       <c r="E92" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
       <c r="B93" s="1"/>
       <c r="D93" t="s">
         <v>131</v>
@@ -2104,66 +2368,99 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
       <c r="B94" s="1"/>
       <c r="E94" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
       <c r="B95" s="1"/>
       <c r="E95" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
       <c r="B96" s="1"/>
       <c r="E96" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
       <c r="B97" s="1"/>
       <c r="E97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
       <c r="B98" s="1"/>
       <c r="E98" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
       <c r="B99" s="1"/>
       <c r="E99" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
       <c r="B100" s="1"/>
       <c r="E100" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
       <c r="B101" s="1"/>
       <c r="E101" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
       <c r="B102" s="1"/>
       <c r="E102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
       <c r="B103" s="1"/>
       <c r="E103" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
       <c r="B104" s="1"/>
       <c r="D104" t="s">
         <v>157</v>
@@ -2172,55 +2469,82 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="E105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
       <c r="B106" s="1"/>
       <c r="F106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="F107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
       <c r="B108" s="1"/>
       <c r="F108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
       <c r="B109" s="1"/>
       <c r="E109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
       <c r="B110" s="1"/>
       <c r="F110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="F111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
       <c r="B112" s="1"/>
       <c r="F112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
       <c r="B113" s="1"/>
       <c r="D113" t="s">
         <v>166</v>
@@ -2229,109 +2553,163 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
       <c r="B114" s="1"/>
       <c r="E114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
       <c r="B115" s="1"/>
       <c r="E115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
       <c r="B116" s="1"/>
       <c r="E116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="E117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="E118" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="E119" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
       <c r="B120" s="1"/>
       <c r="E120" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
       <c r="B121" s="1"/>
       <c r="E121" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
       <c r="B122" s="1"/>
       <c r="E122" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
       <c r="B123" s="1"/>
       <c r="E123" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
       <c r="B124" s="1"/>
       <c r="E124" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
       <c r="B125" s="1"/>
       <c r="E125" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
       <c r="B126" s="1"/>
       <c r="E126" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
       <c r="B127" s="1"/>
       <c r="E127" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
       <c r="B128" s="1"/>
       <c r="E128" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
       <c r="B129" s="1"/>
       <c r="E129" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
       <c r="B130" s="1"/>
       <c r="E130" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
       <c r="B131" s="1"/>
       <c r="E131" t="s">
         <v>184</v>
@@ -2412,6 +2790,9 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="D136" t="s">
         <v>109</v>
@@ -2421,6 +2802,9 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
       <c r="B137" s="1"/>
       <c r="D137" t="s">
         <v>110</v>
@@ -2430,6 +2814,9 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
       <c r="B138" s="1"/>
       <c r="D138" t="s">
         <v>119</v>
@@ -2439,18 +2826,27 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
       <c r="B139" s="1"/>
       <c r="E139" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
       <c r="B140" s="1"/>
       <c r="E140" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
       <c r="B141" s="1"/>
       <c r="D141" t="s">
         <v>120</v>
@@ -2460,24 +2856,36 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
       <c r="B142" s="1"/>
       <c r="E142" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
       <c r="B143" s="1"/>
       <c r="E143" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
       <c r="B144" s="1"/>
       <c r="E144" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
       <c r="B145" s="1"/>
       <c r="D145" t="s">
         <v>146</v>
@@ -2487,6 +2895,9 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
       <c r="B146" s="1"/>
       <c r="D146" t="s">
         <v>147</v>
@@ -2496,6 +2907,9 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
       <c r="B147" s="1"/>
       <c r="D147" t="s">
         <v>148</v>
@@ -2505,6 +2919,9 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
       <c r="B148" s="1"/>
       <c r="D148" t="s">
         <v>193</v>
@@ -2514,6 +2931,9 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
       <c r="B149" s="1"/>
       <c r="D149" t="s">
         <v>194</v>
@@ -2557,6 +2977,9 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>239</v>
+      </c>
       <c r="B152" s="1"/>
       <c r="D152" t="s">
         <v>112</v>
@@ -2566,6 +2989,9 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>239</v>
+      </c>
       <c r="B153" s="1"/>
       <c r="D153" t="s">
         <v>151</v>
@@ -2589,6 +3015,9 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>239</v>
+      </c>
       <c r="B155" s="1"/>
       <c r="D155" t="s">
         <v>113</v>
@@ -2598,6 +3027,9 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>239</v>
+      </c>
       <c r="B156" s="1"/>
       <c r="D156" t="s">
         <v>152</v>
@@ -2607,12 +3039,18 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>239</v>
+      </c>
       <c r="B157" s="1"/>
       <c r="E157" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>239</v>
+      </c>
       <c r="B158" s="1"/>
       <c r="E158" t="s">
         <v>150</v>
@@ -2633,6 +3071,9 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>240</v>
+      </c>
       <c r="B160" s="1"/>
       <c r="D160" t="s">
         <v>155</v>
@@ -2641,139 +3082,208 @@
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>240</v>
+      </c>
       <c r="B161" s="1"/>
       <c r="E161" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>240</v>
+      </c>
       <c r="B162" s="1"/>
       <c r="E162" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>240</v>
+      </c>
       <c r="B163" s="1"/>
       <c r="E163" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>240</v>
+      </c>
       <c r="B164" s="1"/>
       <c r="F164" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>240</v>
+      </c>
       <c r="B165" s="1"/>
       <c r="F165" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>240</v>
+      </c>
       <c r="B166" s="1"/>
       <c r="F166" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>240</v>
+      </c>
       <c r="B167" s="1"/>
       <c r="E167" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>240</v>
+      </c>
       <c r="B168" s="1"/>
       <c r="F168" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>240</v>
+      </c>
       <c r="B169" s="1"/>
       <c r="F169" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>240</v>
+      </c>
       <c r="B170" s="1"/>
       <c r="F170" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>240</v>
+      </c>
       <c r="B171" s="1"/>
       <c r="E171" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>240</v>
+      </c>
       <c r="B172" s="1"/>
       <c r="F172" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>240</v>
+      </c>
       <c r="B173" s="1"/>
       <c r="F173" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>240</v>
+      </c>
       <c r="B174" s="1"/>
       <c r="E174" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>240</v>
+      </c>
       <c r="B175" s="1"/>
       <c r="F175" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>240</v>
+      </c>
       <c r="B176" s="1"/>
       <c r="F176" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>240</v>
+      </c>
       <c r="B177" s="1"/>
       <c r="E177" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>240</v>
+      </c>
       <c r="B178" s="1"/>
       <c r="F178" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>240</v>
+      </c>
       <c r="B179" s="1"/>
       <c r="F179" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>240</v>
+      </c>
       <c r="B180" s="1"/>
       <c r="F180" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>240</v>
+      </c>
       <c r="B181" s="1"/>
       <c r="F181" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>240</v>
+      </c>
       <c r="B182" s="1"/>
       <c r="F182" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>240</v>
+      </c>
       <c r="B183" s="1"/>
       <c r="D183" t="s">
         <v>223</v>
@@ -2783,6 +3293,9 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>240</v>
+      </c>
       <c r="B184" s="1"/>
       <c r="D184" t="s">
         <v>232</v>
@@ -2792,6 +3305,9 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>240</v>
+      </c>
       <c r="B185" s="1"/>
       <c r="D185" t="s">
         <v>233</v>
@@ -2815,6 +3331,9 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>240</v>
+      </c>
       <c r="B187" s="1"/>
       <c r="D187" t="s">
         <v>114</v>
@@ -2824,6 +3343,9 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>240</v>
+      </c>
       <c r="B188" s="1"/>
       <c r="D188" t="s">
         <v>208</v>
@@ -2833,6 +3355,9 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>240</v>
+      </c>
       <c r="B189" s="1"/>
       <c r="D189" t="s">
         <v>213</v>
@@ -2842,6 +3367,9 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>240</v>
+      </c>
       <c r="B190" s="1"/>
       <c r="D190" t="s">
         <v>217</v>
@@ -2851,6 +3379,9 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>240</v>
+      </c>
       <c r="B191" s="1"/>
       <c r="D191" t="s">
         <v>221</v>
@@ -2860,6 +3391,9 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>240</v>
+      </c>
       <c r="B192" s="1"/>
       <c r="D192" t="s">
         <v>229</v>
@@ -2883,6 +3417,9 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>237</v>
+      </c>
       <c r="B194" s="1"/>
       <c r="D194" t="s">
         <v>106</v>
@@ -2892,6 +3429,9 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>237</v>
+      </c>
       <c r="B195" s="1"/>
       <c r="D195" t="s">
         <v>153</v>
@@ -2901,6 +3441,9 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>237</v>
+      </c>
       <c r="B196" s="1"/>
       <c r="D196" t="s">
         <v>154</v>
@@ -2910,6 +3453,9 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>237</v>
+      </c>
       <c r="B197" s="1"/>
       <c r="D197" t="s">
         <v>156</v>
@@ -2933,6 +3479,9 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>18</v>
+      </c>
       <c r="B199" s="1"/>
       <c r="D199" t="s">
         <v>116</v>
@@ -2942,6 +3491,9 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>18</v>
+      </c>
       <c r="B200" s="1"/>
       <c r="D200" t="s">
         <v>142</v>
@@ -2951,6 +3503,9 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>18</v>
+      </c>
       <c r="B201" s="1"/>
       <c r="D201" t="s">
         <v>186</v>
@@ -2960,6 +3515,9 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>18</v>
+      </c>
       <c r="B202" s="1"/>
       <c r="D202" t="s">
         <v>191</v>
@@ -3015,6 +3573,9 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>241</v>
+      </c>
       <c r="B207" s="1"/>
       <c r="D207" t="s">
         <v>195</v>
@@ -3024,6 +3585,9 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>241</v>
+      </c>
       <c r="B208" s="1"/>
       <c r="D208" t="s">
         <v>198</v>
@@ -3047,6 +3611,9 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>241</v>
+      </c>
       <c r="B210" s="1"/>
       <c r="D210" t="s">
         <v>196</v>
@@ -3056,6 +3623,9 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>241</v>
+      </c>
       <c r="B211" s="1"/>
       <c r="D211" t="s">
         <v>197</v>
@@ -3065,6 +3635,9 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>241</v>
+      </c>
       <c r="B212" s="1"/>
       <c r="D212" t="s">
         <v>199</v>
@@ -3088,6 +3661,9 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>242</v>
+      </c>
       <c r="B214" s="1"/>
       <c r="D214" t="s">
         <v>108</v>
@@ -3097,6 +3673,9 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>242</v>
+      </c>
       <c r="B215" s="1"/>
       <c r="D215" t="s">
         <v>111</v>
@@ -3106,6 +3685,9 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>242</v>
+      </c>
       <c r="B216" s="1"/>
       <c r="D216" t="s">
         <v>185</v>
@@ -3115,6 +3697,9 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>242</v>
+      </c>
       <c r="B217" s="1"/>
       <c r="D217" t="s">
         <v>187</v>
@@ -3124,6 +3709,9 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>242</v>
+      </c>
       <c r="B218" s="1"/>
       <c r="D218" t="s">
         <v>204</v>
@@ -3147,6 +3735,9 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>23</v>
+      </c>
       <c r="B220" s="1"/>
       <c r="D220" t="s">
         <v>129</v>
@@ -3156,6 +3747,9 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>23</v>
+      </c>
       <c r="B221" s="1"/>
       <c r="D221" t="s">
         <v>130</v>
@@ -3165,6 +3759,9 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>23</v>
+      </c>
       <c r="B222" s="1"/>
       <c r="D222" t="s">
         <v>144</v>
@@ -3174,6 +3771,9 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
       <c r="B223" s="1"/>
       <c r="D223" t="s">
         <v>145</v>
@@ -3183,6 +3783,9 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
       <c r="B224" s="1"/>
       <c r="D224" t="s">
         <v>149</v>
@@ -3192,6 +3795,9 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
       <c r="B225" s="1"/>
       <c r="D225" t="s">
         <v>200</v>
@@ -3201,6 +3807,9 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>23</v>
+      </c>
       <c r="B226" s="1"/>
       <c r="D226" t="s">
         <v>201</v>
@@ -3210,6 +3819,9 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>23</v>
+      </c>
       <c r="B227" s="1"/>
       <c r="D227" t="s">
         <v>202</v>
@@ -3219,6 +3831,9 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>23</v>
+      </c>
       <c r="B228" s="1"/>
       <c r="D228" t="s">
         <v>203</v>
